--- a/hot.xlsx
+++ b/hot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3450,6 +3450,4744 @@
         <v>1730642662</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>胡春华：人这辈子，就是一场熬炼</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>http://mp.weixin.qq.com/s?__biz=MzIzMzUxMzQzNA==&amp;mid=2247718531&amp;idx=1&amp;sn=6a41ee5c042d2dfe4415adeeb2f8bf22#rd</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>美国选举日重要流程时间表</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>http://mp.weixin.qq.com/s?__biz=MzU5NTY2ODc4OA==&amp;mid=2247484419&amp;idx=1&amp;sn=44da60804145b0516354edbb8d59e9cc#rd</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>云南姑娘独自一人在家，“2分39秒”意外发生了</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>http://mp.weixin.qq.com/s?__biz=MzkxOTUxNzU3Mg==&amp;mid=2247484652&amp;idx=1&amp;sn=66643c07ec606b2c8bac35fc266ec37b&amp;chksm=c09d265645afec38dfe2c90a8d4f99e419e8adf4c37b061b71f01300dcd59d24952b5974bd48#rd</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>中国免签，韩国歇斯底里！</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>http://mp.weixin.qq.com/s?__biz=MzA5OTUyNzY4Mg==&amp;mid=2653449886&amp;idx=3&amp;sn=7abd7c588b44e92e133ab44455105303&amp;chksm=8a3d43e91094912d43c50ad87dfc71bf4e05be38be208c172f049df15b50d279d0945dbda493#rd</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>全网女人都在逼问男人的瑞士卷问题，刘先生的回答让我笑出了鹅声</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>http://mp.weixin.qq.com/s?__biz=MzIwMjczNTQxNA==&amp;mid=2247496754&amp;idx=1&amp;sn=0fa75b8e518732a44e13eab3c00895f2&amp;chksm=977db4b9b9e397b91e7df88afec36aecfaa95ab075d620c086bb31253eb54891bfa1de0942f6#rd</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>虞书欣穿瑜伽裤，圆润柔软，白嫩甜美爱健身好迷人</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>http://mp.weixin.qq.com/s?__biz=MzIzNTIyMjQyNw==&amp;mid=2650701287&amp;idx=4&amp;sn=8d5120f024bd329999ec7ebf7c4d0340&amp;chksm=f19136d65a5b8f953115e46b66a121698afbbaaf590808775509c3e02da5098d182df79ef426#rd</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>48岁林心如突然官宣！震惊全网：早就猜到了……</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>http://mp.weixin.qq.com/s?__biz=MzI2NTQwMTU1NA==&amp;mid=2247508690&amp;idx=1&amp;sn=73929d530e610a8d7886c8f96cbafa8f&amp;chksm=eb3e2d6e0d3be2363a46cc0020893710664e4de20cf5dab7013ffe2587a9026568b08fcdc425#rd</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>美国大选最佳结果：特朗普胜选，哈里斯当总统</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>http://mp.weixin.qq.com/s?__biz=MzI5MDA0OTIwNQ==&amp;mid=2456455571&amp;idx=1&amp;sn=3399fee600d585727ff8ab8bf3c2cf7d&amp;chksm=fa07b1be398adbbe74376fd242d526bc3ad43f22621033d9c1e84eedfa932246b7aedeb0a472#rd</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>张天爱布条装不能蔽体，却大方上街闲逛，这样合适吗？</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>http://mp.weixin.qq.com/s?__biz=MzIzNTIyMjQyNw==&amp;mid=2650701287&amp;idx=8&amp;sn=8b6350ad4ad09f1ec3f3656bf17cdc56&amp;chksm=f11e30e11c1853bceb4f71dafa6518fcc5148578c86d5c41885311fd5ecb40543b396446e45a#rd</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>为表抗议 女大学生竟当众脱到只剩一条内裤！</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>http://mp.weixin.qq.com/s?__biz=MzU1OTI0NTQ2Mw==&amp;mid=2247518869&amp;idx=1&amp;sn=d2432b64ee76c49019867d2322c82a8d&amp;chksm=fd9d99afc130645fafb940212c14671d33fb07141a7583b4bbacaf702f543995ee0da3d05459#rd</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>一觉睡醒，买卖废品，也要交税？是的！11月起，按新规执行</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzkyMzY2NDY1Mw==&amp;mid=2247486502&amp;idx=1&amp;sn=a753d2b998eb68d1474a70ca61b699b8&amp;chksm=c0cd5d3b20a82edeb6a9b50082cd215802152835c117fbc76142ba0d81bef957c4603333c7a6&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>主人晒出家里无毛猫一周的出油量，网友：终于看到比我老公还费枕头的生物了</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzI5MzI4MTMwNQ==&amp;mid=2247720870&amp;idx=1&amp;sn=e6dd173bb0c362e05c89845eef81233d&amp;chksm=edfcfe022c3ef837049453867f7aa12363c094a6b085ef337db8954e08729ee7c7d8e0c674f4&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>“都快绝经了，难道娶你是为了给你养老？”38岁美女相亲被拒，好扎心</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzU5MTM2ODc5Ng==&amp;mid=2247561224&amp;idx=2&amp;sn=daddd33434db14f5a8efb2c14a7139d5&amp;chksm=ff5321fe25df86b0267569d69005042ef23609cbedca3f39b5a6ee4d8a63ccf1e281973f9045&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>杨绛：女人如果没有经济来源，没有工作，即使人品再好，长得再漂亮，在男人眼里根本毫无价值</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzI3MjY3MTcyNA==&amp;mid=2247743919&amp;idx=1&amp;sn=efa90ab8ec23a09d26415ed0b7dce397&amp;chksm=eab8ea065e78b2139ad65b040903b9ac1f55665f2d2396a7a8918a6c6b3c63edae0a6fd6c1ee&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>比理想L8便宜一半！6座+后排大屏+小桌板！续航破千，还有高阶智驾！</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MjM5MzA0NDM0MA==&amp;mid=2661113990&amp;idx=1&amp;sn=7b5c4461c03f2d27a8fce6e292106554&amp;chksm=bc074a0895bda38d7d6ed1f5ee91567c0d298c3fef43774ec9c54215123db16faa2413e86b4a&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>姜萍确认作弊！戏耍我们的，不止她和老师王润秋</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzA4MzUzOTc3OQ==&amp;mid=2651651077&amp;idx=1&amp;sn=c5d45f0bf7d35b57355b4dd1a3087b12&amp;chksm=85a035423f20aeb9462461882f9def264b572d04252f68cf85850f3b4bf21f0e58fc20090143&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>神舟十九号90后女航天员家庭背景曝光，网友惊呼：怪不得她能“上天”！</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MjM5Nzg0MTQ3OQ==&amp;mid=2661612352&amp;idx=1&amp;sn=f3cad607533af06b44254c77f7e3ae13&amp;chksm=bc4115ab381dbedf47b9ecc1855512ddc27855544100e519831dd2fd361c9e496c52d9a77eea&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>身体不好，千万别到处跟人说（切记）</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzkyNjQyOTQzOA==&amp;mid=2247598645&amp;idx=1&amp;sn=3f5f9fe6ecb442a843a2937ec00414bc&amp;chksm=c3c010b70a66dad8e3d3323adbe778d2bb7e85d6ab4eb8fde9b33856050a3742838c5cb33ac2&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>罕见！暴跌87%</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MjI3Njc0NTk4MQ==&amp;mid=2650420641&amp;idx=1&amp;sn=15b1af2a2d7a593d2f4c981129f05aff&amp;chksm=b6d51e01b1fbbe2439f1d1e0b274f6545ed11fa4131e0b9eef47a4c2c3374b754373b26ed057&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>哈里斯、特朗普，大消息！</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MjI3Njc0NTk4MQ==&amp;mid=2650420724&amp;idx=1&amp;sn=368687cd9424edddcf5700107f6ddc5f&amp;chksm=b65e3f81a66941ad350d6774df7971667514feb7dd0e5ae7bf4376e040e54a6c422df549ed6c&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>90后，她买一家上市公司</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzI5ODk1NjY1MA==&amp;mid=2247665576&amp;idx=1&amp;sn=4f4b54c7780063b3f0f403ac0c377360&amp;chksm=ed8e6066a4aa4ab6957163c1e64b93d9e880817dc15eb18aef166f40ed573f7d434bd30b0f71&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>国务院，重磅官宣！</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MjM5MTM3NTMwNA==&amp;mid=2661522508&amp;idx=1&amp;sn=722ee329dd21bfec34b1a24fac04cbb9&amp;chksm=bc39b137091a2c2c30d71469b9a59805589d67f6860e4685bf540d6692e43ff2d25d1191008a&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>哈里斯，赢面更大</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzAxNzczMTY2Ng==&amp;mid=2648637859&amp;idx=1&amp;sn=423b16836a7c6434f8bad7f745194c74&amp;chksm=82ae1ba619f7bfa6fa7b805a842571a352a926637550a8d7b9000ed94dc5263edb9d1ff07e9f&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>吴斐斐，主动投案！当地多名干部同日被查</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=Mzg3NTA5MjkyNQ==&amp;mid=2248378614&amp;idx=2&amp;sn=d7172cc4a8d3bd7cec2b294d0d8b1669&amp;chksm=cc5d5fa7848c5b1d5976ea6356f341ea3f9754c55b8b8b0c7d343e15362c3ef87c42ee45d232&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>马斯克“百万美元抽奖”：获奖者都是挑出来的</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=Mzg5MzEyNzEwNQ==&amp;mid=2247688214&amp;idx=1&amp;sn=e4cbf48ebdb62bc84696d967744badd6&amp;chksm=c1fe2803b7936d6a1faa72f9251c287cde1ab04e145ce08c3393665c81d618052d913d96f2f8&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>大选倒计时，7802万人已投票！49%比48%，特朗普在最关键“摇摆州”领先！防弹玻璃、铁丝网、钢板门、狙击手，美国多州加强安保</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=Mzg3NTA5MjkyNQ==&amp;mid=2248378860&amp;idx=1&amp;sn=cb82ff398c793da4f1fa8f35a9cbdcde&amp;chksm=cc22dda55c52d9ec72b5a8d8aa23edc7207c5f45061ba7619ed19fab34a2764db8453a59c621&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>山东，老三不简单！</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzA5OTk4NDYwMw==&amp;mid=2651569058&amp;idx=1&amp;sn=335018e9b36e77aa5853ae6e0adccee4&amp;chksm=8a0ae3a8637391c00e3feae421842ae4b81a203424a711b8c397a80210e8519079aaa6f6a48d&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>美国，震惊的一幕发生了</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzA5OTk4NDYwMw==&amp;mid=2651569217&amp;idx=1&amp;sn=fb940657d8b9fdebf63d07a4988b4c8d&amp;chksm=8ac078d74fe7ce48e405bd0336b09248aaf679fcdbb69eeb577a3db4acf0dc6382ea3af3bcb6&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>徐小明：周二操作策略(1105)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MjM5NDcyNDAzNA==&amp;mid=2650644550&amp;idx=1&amp;sn=1e8c12d835c9526453b5068edd5fc161&amp;chksm=bf066c50d55c76b0c94da121459edb53ed4a73c456707a252ec1cdb742d73a6f5ee3f987f763&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>激动！重庆又有大型演唱会要来了！</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://mp.weixin.qq.com/s?__biz=MzAwNTkyMDUzOQ==&amp;mid=2247858271&amp;idx=1&amp;sn=9f973ea993ff1f8dce9b245b4eff52dc&amp;chksm=9abca706661d46c6a0a972e51543773819f85f17f590234673121b6b1bfbc86510b9f3e5ee08&amp;scene=0&amp;xtrack=1#rd</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1730818718</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>习近平视察空降兵军</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E4%B9%A0%E8%BF%91%E5%B9%B3%E8%A7%86%E5%AF%9F%E7%A9%BA%E9%99%8D%E5%85%B5%E5%86%9B</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>瑞士卷当事人称非常后悔并抱歉</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E7%91%9E%E5%A3%AB%E5%8D%B7%E5%BD%93%E4%BA%8B%E4%BA%BA%E7%A7%B0%E9%9D%9E%E5%B8%B8%E5%90%8E%E6%82%94%E5%B9%B6%E6%8A%B1%E6%AD%89</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>永夜星河 我就说一天播一集会出事吧</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%B0%B8%E5%A4%9C%E6%98%9F%E6%B2%B3+%E6%88%91%E5%B0%B1%E8%AF%B4%E4%B8%80%E5%A4%A9%E6%92%AD%E4%B8%80%E9%9B%86%E4%BC%9A%E5%87%BA%E4%BA%8B%E5%90%A7</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>四叶草再迎进博时间</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%9B%9B%E5%8F%B6%E8%8D%89%E5%86%8D%E8%BF%8E%E8%BF%9B%E5%8D%9A%E6%97%B6%E9%97%B4</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>微博秒杀</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%BE%AE%E5%8D%9A%E7%A7%92%E6%9D%80</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>哈尔滨文旅回应网红夫妇有传染病</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%93%88%E5%B0%94%E6%BB%A8%E6%96%87%E6%97%85%E5%9B%9E%E5%BA%94%E7%BD%91%E7%BA%A2%E5%A4%AB%E5%A6%87%E6%9C%89%E4%BC%A0%E6%9F%93%E7%97%85</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>11岁男孩发烧心脏停跳52小时</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=11%E5%B2%81%E7%94%B7%E5%AD%A9%E5%8F%91%E7%83%A7%E5%BF%83%E8%84%8F%E5%81%9C%E8%B7%B352%E5%B0%8F%E6%97%B6</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>美国大选</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E7%BE%8E%E5%9B%BD%E5%A4%A7%E9%80%89</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>王鹤棣田曦薇牵手走秀</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E7%8E%8B%E9%B9%A4%E6%A3%A3%E7%94%B0%E6%9B%A6%E8%96%87%E7%89%B5%E6%89%8B%E8%B5%B0%E7%A7%80</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>警方通报网传柳州女子喝醉被强暴</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E8%AD%A6%E6%96%B9%E9%80%9A%E6%8A%A5%E7%BD%91%E4%BC%A0%E6%9F%B3%E5%B7%9E%E5%A5%B3%E5%AD%90%E5%96%9D%E9%86%89%E8%A2%AB%E5%BC%BA%E6%9A%B4</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>封堵大学生夜骑不如疏导</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%B0%81%E5%A0%B5%E5%A4%A7%E5%AD%A6%E7%94%9F%E5%A4%9C%E9%AA%91%E4%B8%8D%E5%A6%82%E7%96%8F%E5%AF%BC</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>虞书欣赵露思 互拍</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E8%99%9E%E4%B9%A6%E6%AC%A3%E8%B5%B5%E9%9C%B2%E6%80%9D+%E4%BA%92%E6%8B%8D</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>马天宇建议取消8个装瑞士卷</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E9%A9%AC%E5%A4%A9%E5%AE%87%E5%BB%BA%E8%AE%AE%E5%8F%96%E6%B6%888%E4%B8%AA%E8%A3%85%E7%91%9E%E5%A3%AB%E5%8D%B7</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>美国东海岸投票站开放</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E7%BE%8E%E5%9B%BD%E4%B8%9C%E6%B5%B7%E5%B2%B8%E6%8A%95%E7%A5%A8%E7%AB%99%E5%BC%80%E6%94%BE</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>丈夫把100万元捐款转给烧伤妈妈</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E4%B8%88%E5%A4%AB%E6%8A%8A100%E4%B8%87%E5%85%83%E6%8D%90%E6%AC%BE%E8%BD%AC%E7%BB%99%E7%83%A7%E4%BC%A4%E5%A6%88%E5%A6%88</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>微博视界大会</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%BE%AE%E5%8D%9A%E8%A7%86%E7%95%8C%E5%A4%A7%E4%BC%9A</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>亚太事务所被重罚停业一年背后</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E4%BA%9A%E5%A4%AA%E4%BA%8B%E5%8A%A1%E6%89%80%E8%A2%AB%E9%87%8D%E7%BD%9A%E5%81%9C%E4%B8%9A%E4%B8%80%E5%B9%B4%E8%83%8C%E5%90%8E</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>李嘉琦在家电采销直播间疯狂下单</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%9D%8E%E5%98%89%E7%90%A6%E5%9C%A8%E5%AE%B6%E7%94%B5%E9%87%87%E9%94%80%E7%9B%B4%E6%92%AD%E9%97%B4%E7%96%AF%E7%8B%82%E4%B8%8B%E5%8D%95</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>虞书欣第一个男主角也来打call了</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E8%99%9E%E4%B9%A6%E6%AC%A3%E7%AC%AC%E4%B8%80%E4%B8%AA%E7%94%B7%E4%B8%BB%E8%A7%92%E4%B9%9F%E6%9D%A5%E6%89%93call%E4%BA%86</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>永夜星河</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%B0%B8%E5%A4%9C%E6%98%9F%E6%B2%B3</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>十个勤天必看综艺 你好种地少年</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%8D%81%E4%B8%AA%E5%8B%A4%E5%A4%A9%E5%BF%85%E7%9C%8B%E7%BB%BC%E8%89%BA+%E4%BD%A0%E5%A5%BD%E7%A7%8D%E5%9C%B0%E5%B0%91%E5%B9%B4</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>女子隆鼻失败讨说法被当场抬走</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%A5%B3%E5%AD%90%E9%9A%86%E9%BC%BB%E5%A4%B1%E8%B4%A5%E8%AE%A8%E8%AF%B4%E6%B3%95%E8%A2%AB%E5%BD%93%E5%9C%BA%E6%8A%AC%E8%B5%B0</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>11岁男孩暴发性心肌炎37天跑赢死神</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=11%E5%B2%81%E7%94%B7%E5%AD%A9%E6%9A%B4%E5%8F%91%E6%80%A7%E5%BF%83%E8%82%8C%E7%82%8E37%E5%A4%A9%E8%B7%91%E8%B5%A2%E6%AD%BB%E7%A5%9E</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2024美国大选选举日投票正式开始</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=2024%E7%BE%8E%E5%9B%BD%E5%A4%A7%E9%80%89%E9%80%89%E4%B8%BE%E6%97%A5%E6%8A%95%E7%A5%A8%E6%AD%A3%E5%BC%8F%E5%BC%80%E5%A7%8B</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>21岁女生下腹疼痛确诊胃癌晚期</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=21%E5%B2%81%E5%A5%B3%E7%94%9F%E4%B8%8B%E8%85%B9%E7%96%BC%E7%97%9B%E7%A1%AE%E8%AF%8A%E8%83%83%E7%99%8C%E6%99%9A%E6%9C%9F</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>向佐郭碧婷 再见爱人</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%90%91%E4%BD%90%E9%83%AD%E7%A2%A7%E5%A9%B7+%E5%86%8D%E8%A7%81%E7%88%B1%E4%BA%BA</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>教体局通报班主任家长群催缴医保</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%95%99%E4%BD%93%E5%B1%80%E9%80%9A%E6%8A%A5%E7%8F%AD%E4%B8%BB%E4%BB%BB%E5%AE%B6%E9%95%BF%E7%BE%A4%E5%82%AC%E7%BC%B4%E5%8C%BB%E4%BF%9D</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>陈雪凝回应抄袭汪苏泷</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E9%99%88%E9%9B%AA%E5%87%9D%E5%9B%9E%E5%BA%94%E6%8A%84%E8%A2%AD%E6%B1%AA%E8%8B%8F%E6%B3%B7</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>近半价卖掉400万房子反悔需赔40万</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E8%BF%91%E5%8D%8A%E4%BB%B7%E5%8D%96%E6%8E%89400%E4%B8%87%E6%88%BF%E5%AD%90%E5%8F%8D%E6%82%94%E9%9C%80%E8%B5%9440%E4%B8%87</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>雷军称将推出小米驾校</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E9%9B%B7%E5%86%9B%E7%A7%B0%E5%B0%86%E6%8E%A8%E5%87%BA%E5%B0%8F%E7%B1%B3%E9%A9%BE%E6%A0%A1</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>权志龙说不要再少人了</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%9D%83%E5%BF%97%E9%BE%99%E8%AF%B4%E4%B8%8D%E8%A6%81%E5%86%8D%E5%B0%91%E4%BA%BA%E4%BA%86</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>刘谦抗癌成功称已完全康复</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%88%98%E8%B0%A6%E6%8A%97%E7%99%8C%E6%88%90%E5%8A%9F%E7%A7%B0%E5%B7%B2%E5%AE%8C%E5%85%A8%E5%BA%B7%E5%A4%8D</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>母女起争执女儿怒砸太古里一专卖店</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%AF%8D%E5%A5%B3%E8%B5%B7%E4%BA%89%E6%89%A7%E5%A5%B3%E5%84%BF%E6%80%92%E7%A0%B8%E5%A4%AA%E5%8F%A4%E9%87%8C%E4%B8%80%E4%B8%93%E5%8D%96%E5%BA%97</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>甘肃天水事业单位招考被质疑设萝卜岗</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E7%94%98%E8%82%83%E5%A4%A9%E6%B0%B4%E4%BA%8B%E4%B8%9A%E5%8D%95%E4%BD%8D%E6%8B%9B%E8%80%83%E8%A2%AB%E8%B4%A8%E7%96%91%E8%AE%BE%E8%90%9D%E5%8D%9C%E5%B2%97</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>范丞丞回应小巷人家演技争议</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E8%8C%83%E4%B8%9E%E4%B8%9E%E5%9B%9E%E5%BA%94%E5%B0%8F%E5%B7%B7%E4%BA%BA%E5%AE%B6%E6%BC%94%E6%8A%80%E4%BA%89%E8%AE%AE</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>怪奇物语</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%80%AA%E5%A5%87%E7%89%A9%E8%AF%AD</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>赵露思刘宇宁后台相遇</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E8%B5%B5%E9%9C%B2%E6%80%9D%E5%88%98%E5%AE%87%E5%AE%81%E5%90%8E%E5%8F%B0%E7%9B%B8%E9%81%87</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>丁禹兮 人前vs妖后</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E4%B8%81%E7%A6%B9%E5%85%AE+%E4%BA%BA%E5%89%8Dvs%E5%A6%96%E5%90%8E</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>国企董事长15个月收497瓶名酒</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%9B%BD%E4%BC%81%E8%91%A3%E4%BA%8B%E9%95%BF15%E4%B8%AA%E6%9C%88%E6%94%B6497%E7%93%B6%E5%90%8D%E9%85%92</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>张艺兴工作室私信17岁高中生</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%BC%A0%E8%89%BA%E5%85%B4%E5%B7%A5%E4%BD%9C%E5%AE%A4%E7%A7%81%E4%BF%A117%E5%B2%81%E9%AB%98%E4%B8%AD%E7%94%9F</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>忽然明白少年夫妻老来伴的含义</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%BF%BD%E7%84%B6%E6%98%8E%E7%99%BD%E5%B0%91%E5%B9%B4%E5%A4%AB%E5%A6%BB%E8%80%81%E6%9D%A5%E4%BC%B4%E7%9A%84%E5%90%AB%E4%B9%89</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>哈里斯特朗普竞选主张大pk</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%93%88%E9%87%8C%E6%96%AF%E7%89%B9%E6%9C%97%E6%99%AE%E7%AB%9E%E9%80%89%E4%B8%BB%E5%BC%A0%E5%A4%A7pk</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>谭松韵问张晚意吃糖吗</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E8%B0%AD%E6%9D%BE%E9%9F%B5%E9%97%AE%E5%BC%A0%E6%99%9A%E6%84%8F%E5%90%83%E7%B3%96%E5%90%97</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>成都太古里回应Tiffany专柜被砸</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%88%90%E9%83%BD%E5%A4%AA%E5%8F%A4%E9%87%8C%E5%9B%9E%E5%BA%94Tiffany%E4%B8%93%E6%9F%9C%E8%A2%AB%E7%A0%B8</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>女子哭诉残障母亲在养老院遭多次猥亵</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%A5%B3%E5%AD%90%E5%93%AD%E8%AF%89%E6%AE%8B%E9%9A%9C%E6%AF%8D%E4%BA%B2%E5%9C%A8%E5%85%BB%E8%80%81%E9%99%A2%E9%81%AD%E5%A4%9A%E6%AC%A1%E7%8C%A5%E4%BA%B5</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>美国迎来史上最势均力敌总统选举</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E7%BE%8E%E5%9B%BD%E8%BF%8E%E6%9D%A5%E5%8F%B2%E4%B8%8A%E6%9C%80%E5%8A%BF%E5%9D%87%E5%8A%9B%E6%95%8C%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>清华大学发了凌妙妙转场</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%B8%85%E5%8D%8E%E5%A4%A7%E5%AD%A6%E5%8F%91%E4%BA%86%E5%87%8C%E5%A6%99%E5%A6%99%E8%BD%AC%E5%9C%BA</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>吴磊演技</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%90%B4%E7%A3%8A%E6%BC%94%E6%8A%80</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>张婧仪 幻视回国后的朱韵</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E5%BC%A0%E5%A9%A7%E4%BB%AA+%E5%B9%BB%E8%A7%86%E5%9B%9E%E5%9B%BD%E5%90%8E%E7%9A%84%E6%9C%B1%E9%9F%B5</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>王楚钦7325分继续霸榜世界第一</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E7%8E%8B%E6%A5%9A%E9%92%A67325%E5%88%86%E7%BB%A7%E7%BB%AD%E9%9C%B8%E6%A6%9C%E4%B8%96%E7%95%8C%E7%AC%AC%E4%B8%80</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>林诗栋vs法尔克</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%9E%97%E8%AF%97%E6%A0%8Bvs%E6%B3%95%E5%B0%94%E5%85%8B</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>永夜星河 姐夫脑袋上挂了个库洛米</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://s.weibo.com/weibo?q=%E6%B0%B8%E5%A4%9C%E6%98%9F%E6%B2%B3+%E5%A7%90%E5%A4%AB%E8%84%91%E8%A2%8B%E4%B8%8A%E6%8C%82%E4%BA%86%E4%B8%AA%E5%BA%93%E6%B4%9B%E7%B1%B3</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>中国航空工业集团自主研制的新一代隐身战斗机「歼 35A」首次官宣，即将现身珠海航展，你对它有哪些期待？</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3186589873</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>董明珠直播中训下属，俞敏洪打圆场，如何看待此事？董明珠管理风格对员工和企业有什么影响？</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3197272301</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>宋代和明代哪个朝代老百姓生活水平较高？</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/668394289</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>武士刀报废率这么高，能不能设计一种可以快速拆卸更换刀条的新型武士刀呢？</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2938421664</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>什么是你在长期坚持某一项运动之后得出的经验结论？</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/603822135</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>「长期社交缺失」会有什么影响？</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2511764045</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>如何评价西安魏家凉皮？</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/266544629</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2024 年美国总统选举投票正式开始，已有超过 20 个州开放投票站，哪些信息值得关注？</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3204234396</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>如何看待《崩坏：星穹铁道》2.6 版本剧情中的 NPC 苦茶大师？</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2585908965</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>路飞开尼卡模式能击败《龙珠》里的克林吗？</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/625905145</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>11 月 5 日 A 股低开高走，超 5000 股上涨，两市成交额 2.3 万亿，如何看待今日行情？</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3184606404</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>为什么 Windows 的兼容性这么强大，到底用了什么技术？</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/266103113</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>美国史上最势均力敌总统选举，选举结果或延迟公布，哪些因素将决定最终结果？</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3233115837</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>怎样才能把猪肉片或肉丝炒得很嫩？</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/495445752</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>如果回到过去，你还会和现在的人结婚吗？</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/670772561</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>鸿蒙丝滑的秘密是什么？</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/665311238</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>如果香水也有 MBTI，「i」人和「e」人在选择香水上会有哪些区别？</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/969423951</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>美国大选正式开始，投票何时结束？结果何时能公布？</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3186246267</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>广汽销量连跌 9 月，释出了什么信息？</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3047741571</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>美国总统大选最后冲刺，特朗普承认有败选可能，影响因素有哪些？若他败选需关注哪些风险？</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3071028647</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>据 NBA 记者 Shams 的消息，马刺队主教练波波维奇因未公开疾病无限期休假，他的缺阵对马刺有什么影响？</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3181131984</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>怎么评价赵鼎新？</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/21239348</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>LPL 明年真的会断崖式失去关注度吗？</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3092810874</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>什么鱼生命力顽强好养活？</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/662029920</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>为什么电影《新警察故事》里，成龙与吴彦祖两次比赛组枪结局不同?</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/404292608</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>为什么很多司机不进左转弯待转区？</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2920489680</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>如何评价 faker 赢得他的第五次冠军？</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2945959212</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>你们家猫咪取名字的灵感是怎么来的？</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/666969974</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>如何评价《黑神话：悟空》获金摇杆年度提名？</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3151450577</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>自助餐里真有饱腹剂的存在吗？</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/722020631</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>结不结婚都有遗憾吗？</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3096231634</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>金州勇士开赛 6 胜 1 负，大家认为主要是球队发生了什么变化？</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3196845441</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>商业史上有哪些降维打击的经典案例？</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/62241319</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>网传 iG 在 2025 赛季想要 Jackeylove 回归，你觉得 TES 可能会放他走吗？</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3090679131</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>大连英博成功冲超，你看好这支球队的未来吗？</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3012082960</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>比亚迪多久能赶超丰田？中国汽车多久能赶超日系汽车？</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3003930893</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>如果让你每天换个人格上班，你会怎么安排？</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/806901573</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>为什么这么多国家教练都说樊振东是一个很有天赋的选手，他的天赋体现在哪些方面？</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/295561961</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>王健林半价卖掉英国游艇制造商，出于什么市场考量？你怎么看？</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2826111346</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>闫妮主演的年代剧《小巷人家》对于七十年代的还原如何？你觉得真实吗？</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2574266068</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>为什么我们讨论原生家庭时，大多数都在讨论它的负面影响？我们该如何正确、全面地对待和认识原生家庭的影响？</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/1788673259</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>看完这次 S14 的决赛，大家觉得 Knight 到底和 Faker 有什么不同？</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3082245105</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>秋招面试时被问「如果给你一个全新的项目，你会怎么做」？如何回答？</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2188407673</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>自我介绍环节除了介绍自己学校、专业、兴趣爱好，还有什么可以自荐的？</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/668860945</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>女儿学习小组有个同学经常犯错导致连坐怎么办？</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/684128240</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>自费参加马拉松，你认为怎么做才算跑「回本儿」？</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/653110892</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>被领导批评之后久久不能释怀怎么办？</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/1910110552</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>为什么很难给别人解释哲学问题?</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2664073819</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>请问姆巴佩现在遇到的困境是教练的问题还是自身的问题？</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2605344434</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>为什么有的人可以充满「passion」地坚持完成一件事，有的人却很容易半途而废？</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3117385816</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>3款五代隐身战机齐聚中国 解读来了</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=3%E6%AC%BE%E4%BA%94%E4%BB%A3%E9%9A%90%E8%BA%AB%E6%88%98%E6%9C%BA%E9%BD%90%E8%81%9A%E4%B8%AD%E5%9B%BD+%E8%A7%A3%E8%AF%BB%E6%9D%A5%E4%BA%86</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>进博会七岁了</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E8%BF%9B%E5%8D%9A%E4%BC%9A%E4%B8%83%E5%B2%81%E4%BA%86</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>男子将全裸女子扛出地铁 警方回应</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%94%B7%E5%AD%90%E5%B0%86%E5%85%A8%E8%A3%B8%E5%A5%B3%E5%AD%90%E6%89%9B%E5%87%BA%E5%9C%B0%E9%93%81+%E8%AD%A6%E6%96%B9%E5%9B%9E%E5%BA%94</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>马斯克：苹果若作恶特斯拉就造手机</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E9%A9%AC%E6%96%AF%E5%85%8B%EF%BC%9A%E8%8B%B9%E6%9E%9C%E8%8B%A5%E4%BD%9C%E6%81%B6%E7%89%B9%E6%96%AF%E6%8B%89%E5%B0%B1%E9%80%A0%E6%89%8B%E6%9C%BA</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>美国超20个州开放总统大选投票站</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%BE%8E%E5%9B%BD%E8%B6%8520%E4%B8%AA%E5%B7%9E%E5%BC%80%E6%94%BE%E6%80%BB%E7%BB%9F%E5%A4%A7%E9%80%89%E6%8A%95%E7%A5%A8%E7%AB%99</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>营养专家：一个瑞士卷相当于一碗饭</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E8%90%A5%E5%85%BB%E4%B8%93%E5%AE%B6%EF%BC%9A%E4%B8%80%E4%B8%AA%E7%91%9E%E5%A3%AB%E5%8D%B7%E7%9B%B8%E5%BD%93%E4%BA%8E%E4%B8%80%E7%A2%97%E9%A5%AD</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>羽绒服涨价了 竟与猪价有关</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%BE%BD%E7%BB%92%E6%9C%8D%E6%B6%A8%E4%BB%B7%E4%BA%86+%E7%AB%9F%E4%B8%8E%E7%8C%AA%E4%BB%B7%E6%9C%89%E5%85%B3</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Tiffany成都太古里店被砸</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=Tiffany%E6%88%90%E9%83%BD%E5%A4%AA%E5%8F%A4%E9%87%8C%E5%BA%97%E8%A2%AB%E7%A0%B8</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>3娃打闹家长先指挥后互殴 警方通报</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=3%E5%A8%83%E6%89%93%E9%97%B9%E5%AE%B6%E9%95%BF%E5%85%88%E6%8C%87%E6%8C%A5%E5%90%8E%E4%BA%92%E6%AE%B4+%E8%AD%A6%E6%96%B9%E9%80%9A%E6%8A%A5</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>特朗普称将对中国征收关税 中方回应</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%89%B9%E6%9C%97%E6%99%AE%E7%A7%B0%E5%B0%86%E5%AF%B9%E4%B8%AD%E5%9B%BD%E5%BE%81%E6%94%B6%E5%85%B3%E7%A8%8E+%E4%B8%AD%E6%96%B9%E5%9B%9E%E5%BA%94</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>女子喝醉在路边被强暴？不实</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%A5%B3%E5%AD%90%E5%96%9D%E9%86%89%E5%9C%A8%E8%B7%AF%E8%BE%B9%E8%A2%AB%E5%BC%BA%E6%9A%B4%EF%BC%9F%E4%B8%8D%E5%AE%9E</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>马斯克：若哈里斯上台 X平台或被关闭</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E9%A9%AC%E6%96%AF%E5%85%8B%EF%BC%9A%E8%8B%A5%E5%93%88%E9%87%8C%E6%96%AF%E4%B8%8A%E5%8F%B0+X%E5%B9%B3%E5%8F%B0%E6%88%96%E8%A2%AB%E5%85%B3%E9%97%AD</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>女子哭诉残障母亲在养老院频遭猥亵</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%A5%B3%E5%AD%90%E5%93%AD%E8%AF%89%E6%AE%8B%E9%9A%9C%E6%AF%8D%E4%BA%B2%E5%9C%A8%E5%85%BB%E8%80%81%E9%99%A2%E9%A2%91%E9%81%AD%E7%8C%A5%E4%BA%B5</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>美国选举日首个投票点结果出炉</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E6%97%A5%E9%A6%96%E4%B8%AA%E6%8A%95%E7%A5%A8%E7%82%B9%E7%BB%93%E6%9E%9C%E5%87%BA%E7%82%89</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>18岁女孩关煤气发生爆炸 面部需植皮</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=18%E5%B2%81%E5%A5%B3%E5%AD%A9%E5%85%B3%E7%85%A4%E6%B0%94%E5%8F%91%E7%94%9F%E7%88%86%E7%82%B8+%E9%9D%A2%E9%83%A8%E9%9C%80%E6%A4%8D%E7%9A%AE</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>郭晓东向妻子道歉</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E9%83%AD%E6%99%93%E4%B8%9C%E5%90%91%E5%A6%BB%E5%AD%90%E9%81%93%E6%AD%89</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>全球金融市场交易员通宵待命</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%85%A8%E7%90%83%E9%87%91%E8%9E%8D%E5%B8%82%E5%9C%BA%E4%BA%A4%E6%98%93%E5%91%98%E9%80%9A%E5%AE%B5%E5%BE%85%E5%91%BD</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>付费自习室里多少人在表演性学习</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E4%BB%98%E8%B4%B9%E8%87%AA%E4%B9%A0%E5%AE%A4%E9%87%8C%E5%A4%9A%E5%B0%91%E4%BA%BA%E5%9C%A8%E8%A1%A8%E6%BC%94%E6%80%A7%E5%AD%A6%E4%B9%A0</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>医生：长期穿鲨鱼裤有健康风险</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%8C%BB%E7%94%9F%EF%BC%9A%E9%95%BF%E6%9C%9F%E7%A9%BF%E9%B2%A8%E9%B1%BC%E8%A3%A4%E6%9C%89%E5%81%A5%E5%BA%B7%E9%A3%8E%E9%99%A9</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>美方高度关注歼35A和红19导弹亮相</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%BE%8E%E6%96%B9%E9%AB%98%E5%BA%A6%E5%85%B3%E6%B3%A8%E6%AD%BC35A%E5%92%8C%E7%BA%A219%E5%AF%BC%E5%BC%B9%E4%BA%AE%E7%9B%B8</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>女子产后出院被老公套袋抬回家</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%A5%B3%E5%AD%90%E4%BA%A7%E5%90%8E%E5%87%BA%E9%99%A2%E8%A2%AB%E8%80%81%E5%85%AC%E5%A5%97%E8%A2%8B%E6%8A%AC%E5%9B%9E%E5%AE%B6</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>乌克兰称已同朝鲜军队发生交战</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E4%B9%8C%E5%85%8B%E5%85%B0%E7%A7%B0%E5%B7%B2%E5%90%8C%E6%9C%9D%E9%B2%9C%E5%86%9B%E9%98%9F%E5%8F%91%E7%94%9F%E4%BA%A4%E6%88%98</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>店铺钉死窗户应对美国大选</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%BA%97%E9%93%BA%E9%92%89%E6%AD%BB%E7%AA%97%E6%88%B7%E5%BA%94%E5%AF%B9%E7%BE%8E%E5%9B%BD%E5%A4%A7%E9%80%89</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>向佐穿向太衣服走红毯</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%90%91%E4%BD%90%E7%A9%BF%E5%90%91%E5%A4%AA%E8%A1%A3%E6%9C%8D%E8%B5%B0%E7%BA%A2%E6%AF%AF</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>货车撞劳斯莱斯被认定全责 司机发抖</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E8%B4%A7%E8%BD%A6%E6%92%9E%E5%8A%B3%E6%96%AF%E8%8E%B1%E6%96%AF%E8%A2%AB%E8%AE%A4%E5%AE%9A%E5%85%A8%E8%B4%A3+%E5%8F%B8%E6%9C%BA%E5%8F%91%E6%8A%96</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>网友徒步发现尸骨 警方通报</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%BD%91%E5%8F%8B%E5%BE%92%E6%AD%A5%E5%8F%91%E7%8E%B0%E5%B0%B8%E9%AA%A8+%E8%AD%A6%E6%96%B9%E9%80%9A%E6%8A%A5</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>刘谦称已完全康复 此前患肺腺癌</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%88%98%E8%B0%A6%E7%A7%B0%E5%B7%B2%E5%AE%8C%E5%85%A8%E5%BA%B7%E5%A4%8D+%E6%AD%A4%E5%89%8D%E6%82%A3%E8%82%BA%E8%85%BA%E7%99%8C</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>刘晓庆前男友报警</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%88%98%E6%99%93%E5%BA%86%E5%89%8D%E7%94%B7%E5%8F%8B%E6%8A%A5%E8%AD%A6</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>国家气候中心：我国今冬大概率偏冷</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%9B%BD%E5%AE%B6%E6%B0%94%E5%80%99%E4%B8%AD%E5%BF%83%EF%BC%9A%E6%88%91%E5%9B%BD%E4%BB%8A%E5%86%AC%E5%A4%A7%E6%A6%82%E7%8E%87%E5%81%8F%E5%86%B7</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>哈里斯特朗普关键摇摆州支持率接近</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%93%88%E9%87%8C%E6%96%AF%E7%89%B9%E6%9C%97%E6%99%AE%E5%85%B3%E9%94%AE%E6%91%87%E6%91%86%E5%B7%9E%E6%94%AF%E6%8C%81%E7%8E%87%E6%8E%A5%E8%BF%91</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>湖南夫妻理发店因听劝爆火</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E6%B9%96%E5%8D%97%E5%A4%AB%E5%A6%BB%E7%90%86%E5%8F%91%E5%BA%97%E5%9B%A0%E5%90%AC%E5%8A%9D%E7%88%86%E7%81%AB</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>美国大选选举结果或延迟公布</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%BE%8E%E5%9B%BD%E5%A4%A7%E9%80%89%E9%80%89%E4%B8%BE%E7%BB%93%E6%9E%9C%E6%88%96%E5%BB%B6%E8%BF%9F%E5%85%AC%E5%B8%83</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>美国51位总检察长呼吁和平移交权力</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%BE%8E%E5%9B%BD51%E4%BD%8D%E6%80%BB%E6%A3%80%E5%AF%9F%E9%95%BF%E5%91%BC%E5%90%81%E5%92%8C%E5%B9%B3%E7%A7%BB%E4%BA%A4%E6%9D%83%E5%8A%9B</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>美国总统大选 这个县是关键中的关键</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%A4%A7%E9%80%89+%E8%BF%99%E4%B8%AA%E5%8E%BF%E6%98%AF%E5%85%B3%E9%94%AE%E4%B8%AD%E7%9A%84%E5%85%B3%E9%94%AE</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>电影《焚城》票房破亿</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%94%B5%E5%BD%B1%E3%80%8A%E7%84%9A%E5%9F%8E%E3%80%8B%E7%A5%A8%E6%88%BF%E7%A0%B4%E4%BA%BF</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>男生偶遇七胞胎逛商场大呼震撼</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%94%B7%E7%94%9F%E5%81%B6%E9%81%87%E4%B8%83%E8%83%9E%E8%83%8E%E9%80%9B%E5%95%86%E5%9C%BA%E5%A4%A7%E5%91%BC%E9%9C%87%E6%92%BC</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>女性和拉丁裔倒向哈里斯</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%A5%B3%E6%80%A7%E5%92%8C%E6%8B%89%E4%B8%81%E8%A3%94%E5%80%92%E5%90%91%E5%93%88%E9%87%8C%E6%96%AF</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>女大学生夜骑开封失败让妈妈开车接</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%A5%B3%E5%A4%A7%E5%AD%A6%E7%94%9F%E5%A4%9C%E9%AA%91%E5%BC%80%E5%B0%81%E5%A4%B1%E8%B4%A5%E8%AE%A9%E5%A6%88%E5%A6%88%E5%BC%80%E8%BD%A6%E6%8E%A5</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>《金枝欲孽》主演时隔20年再合体</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E3%80%8A%E9%87%91%E6%9E%9D%E6%AC%B2%E5%AD%BD%E3%80%8B%E4%B8%BB%E6%BC%94%E6%97%B6%E9%9A%9420%E5%B9%B4%E5%86%8D%E5%90%88%E4%BD%93</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>新郎接亲 女方没堵门还安排鲜花路</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E6%96%B0%E9%83%8E%E6%8E%A5%E4%BA%B2+%E5%A5%B3%E6%96%B9%E6%B2%A1%E5%A0%B5%E9%97%A8%E8%BF%98%E5%AE%89%E6%8E%92%E9%B2%9C%E8%8A%B1%E8%B7%AF</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>公司宣布将暂停王承渲一切工作</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%85%AC%E5%8F%B8%E5%AE%A3%E5%B8%83%E5%B0%86%E6%9A%82%E5%81%9C%E7%8E%8B%E6%89%BF%E6%B8%B2%E4%B8%80%E5%88%87%E5%B7%A5%E4%BD%9C</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>国内机票价格跳水</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%9B%BD%E5%86%85%E6%9C%BA%E7%A5%A8%E4%BB%B7%E6%A0%BC%E8%B7%B3%E6%B0%B4</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>班主任在家长群催缴医保 当地回应</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%8F%AD%E4%B8%BB%E4%BB%BB%E5%9C%A8%E5%AE%B6%E9%95%BF%E7%BE%A4%E5%82%AC%E7%BC%B4%E5%8C%BB%E4%BF%9D+%E5%BD%93%E5%9C%B0%E5%9B%9E%E5%BA%94</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>开封大学生的“反击”来了</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E5%BC%80%E5%B0%81%E5%A4%A7%E5%AD%A6%E7%94%9F%E7%9A%84%E2%80%9C%E5%8F%8D%E5%87%BB%E2%80%9D%E6%9D%A5%E4%BA%86</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>董明珠直播中训下属 俞敏洪圆场</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E8%91%A3%E6%98%8E%E7%8F%A0%E7%9B%B4%E6%92%AD%E4%B8%AD%E8%AE%AD%E4%B8%8B%E5%B1%9E+%E4%BF%9E%E6%95%8F%E6%B4%AA%E5%9C%86%E5%9C%BA</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>6岁女孩冷冻卵巢组织免化疗损害</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=6%E5%B2%81%E5%A5%B3%E5%AD%A9%E5%86%B7%E5%86%BB%E5%8D%B5%E5%B7%A2%E7%BB%84%E7%BB%87%E5%85%8D%E5%8C%96%E7%96%97%E6%8D%9F%E5%AE%B3</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>玛莎拉蒂9月只卖了38辆</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E7%8E%9B%E8%8E%8E%E6%8B%89%E8%92%829%E6%9C%88%E5%8F%AA%E5%8D%96%E4%BA%8638%E8%BE%86</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>为什么说摇摆州是美国大选的关键</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?wd=%E4%B8%BA%E4%BB%80%E4%B9%88%E8%AF%B4%E6%91%87%E6%91%86%E5%B7%9E%E6%98%AF%E7%BE%8E%E5%9B%BD%E5%A4%A7%E9%80%89%E7%9A%84%E5%85%B3%E9%94%AE</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>百度</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>小虎墩大英雄</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188621</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>奇迹·笨小孩</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188591</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>长津湖之水门桥（2022）</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188646</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>四海</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188405</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>我们的冬奥</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188649</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>喜羊羊与灰太狼之筐出未来</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188526</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>穿过寒冬拥抱你（2021）</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188524</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>蜘蛛侠：英雄无归</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188265</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>十年一品温如言</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188250</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>李茂扮太子（2022）</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188491</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>爱情神话(2021)</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188243</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>古董局中局</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120186678</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>熊出没·重返地球</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188592</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>雄狮少年</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188401</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>我心飞扬</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188192</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>这个杀手不太冷静</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188497</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>神秘海域</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/10012099885</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>魔法满屋</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188634</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>以年为单位的恋爱</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188278</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>反贪风暴5</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>http://weibo.com/p/100120188308</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>微博</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>中国航空工业集团自主研制的新一代隐身战斗机「歼35A」首次官宣，即将现身珠海航展，你对它有哪些期待？</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3186589873</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>如何看待《崩坏：星穹铁道》2.6版本剧情中的NPC苦茶大师？</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2585908965</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>广汽销量连跌9月，释出了什么信息？</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3047741571</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>据NBA记者Shams的消息，马刺队主教练波波维奇因未公开疾病无限期休假，他的缺阵对马刺有什么影响？</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3181131984</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>LPL明年真的会断崖式失去关注度吗？</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/3092810874</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>如何评价faker赢得他的第五次冠军？</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://www.zhihu.com/question/2945959212</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>知乎</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>1730819757</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1730819758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
